--- a/assignment5/result-ratio-dif cutoff&size.xlsx
+++ b/assignment5/result-ratio-dif cutoff&size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eclipseWorkspace\INFO6205-Shibo-Lu\assignment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E8E977-9B0F-4ACF-A543-0D67DA1469F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBE23C-79D7-4FE2-AB72-BF462EB125C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7825,7 +7825,7 @@
   <dimension ref="A1:E960"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E960"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
